--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/17_11R22.xlsx
@@ -674,61 +674,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2116830136500858</v>
+        <v>0.08040149319805825</v>
       </c>
       <c r="E2">
-        <v>0.1266870631178975</v>
+        <v>0.01849219328942599</v>
       </c>
       <c r="F2">
-        <v>0.3143597948220263</v>
+        <v>0.2265489939583318</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2057593451212538</v>
       </c>
       <c r="H2">
-        <v>0.03743580795695334</v>
+        <v>0.02379303136507218</v>
       </c>
       <c r="I2">
-        <v>0.0005311206901440667</v>
+        <v>0.04282087150952134</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05452765282252459</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002965636609440389</v>
+        <v>0.01801838903091525</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.09562911050745919</v>
+        <v>0.009760405640601835</v>
       </c>
       <c r="O2">
-        <v>0.02291677032022633</v>
+        <v>0.07304964212658269</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.005435221472131343</v>
       </c>
       <c r="Q2">
-        <v>0.01713550758141136</v>
+        <v>0.006465381913508748</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.03997355608502523</v>
       </c>
       <c r="S2">
-        <v>0.06121100615391603</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.05149495061066495</v>
+        <v>0.1079008159481245</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.009553232824561763</v>
       </c>
       <c r="V2">
-        <v>0.009022899865305196</v>
+        <v>0.00429538815383839</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.00169540036234782</v>
       </c>
       <c r="AB2">
-        <v>0.02642382373853294</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01982019411206228</v>
+        <v>0.06101366929183226</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01049531588634245</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002683300263874251</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -784,31 +784,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01021949649382117</v>
       </c>
       <c r="E3">
-        <v>0.2372664397366998</v>
+        <v>0.1016374398782589</v>
       </c>
       <c r="F3">
-        <v>0.1207611282593403</v>
+        <v>0.1539713389658596</v>
       </c>
       <c r="G3">
-        <v>0.3505948694168519</v>
+        <v>0.2924827846877339</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06473312194618226</v>
+        <v>0.07099014474770662</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04353024000694238</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.016040342768533E-05</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -817,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04585290845901342</v>
+        <v>0.07636692159083225</v>
       </c>
       <c r="P3">
-        <v>0.01145188830834365</v>
+        <v>0.006320605346538688</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001772407353305983</v>
+        <v>0.03887245361474616</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06976814111444052</v>
+        <v>0.08177654151698915</v>
       </c>
       <c r="U3">
-        <v>0.04960620418829918</v>
+        <v>0.04303689508921638</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.008085778794273309</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004042263071868652</v>
+        <v>0.004712878178986849</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.005056602981583757</v>
       </c>
       <c r="AC3">
-        <v>0.02206168746866952</v>
+        <v>0.03519304066336235</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.03575245583399372</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01400316188271172</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -894,82 +894,82 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152460466268015</v>
+        <v>0.2283348420442656</v>
       </c>
       <c r="E4">
-        <v>0.02418162762005599</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3127426029647964</v>
+        <v>0.2953827634791598</v>
       </c>
       <c r="G4">
-        <v>0.191428724824913</v>
+        <v>0.08555437768258756</v>
       </c>
       <c r="H4">
-        <v>0.03033929318679746</v>
+        <v>0.09729359827271905</v>
       </c>
       <c r="I4">
-        <v>0.03589184596009631</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006307815512703091</v>
+        <v>0.03615206140617431</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00164104835162411</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.006736806601563686</v>
+        <v>0.0176038092754132</v>
       </c>
       <c r="O4">
-        <v>0.0681757520797729</v>
+        <v>0.01888983769547995</v>
       </c>
       <c r="P4">
-        <v>0.0003413681471207189</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0005416244175973803</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.003817192199228512</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0280273086298774</v>
       </c>
       <c r="T4">
-        <v>0.1117452540595633</v>
+        <v>0.116895064638194</v>
       </c>
       <c r="U4">
-        <v>0.005646383937659748</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0129528604754378</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.007659597697381921</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.0003280459536472873</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0006152995536057414</v>
+        <v>0.02009112835577131</v>
       </c>
       <c r="AB4">
-        <v>0.008186345391935834</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0473631558895353</v>
+        <v>0.04626075468685669</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0017243982397464</v>
+        <v>0.003186542911403982</v>
       </c>
       <c r="AI4">
-        <v>0.01271482123051288</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,28 +1004,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2209289622326693</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1215798687985091</v>
+        <v>0.2470019191828257</v>
       </c>
       <c r="F5">
-        <v>0.3380021337348586</v>
+        <v>0.03824495675610139</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2455659859681339</v>
       </c>
       <c r="H5">
-        <v>0.05217345256531336</v>
+        <v>0.003661511127186595</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.06803542424692562</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03988771514953862</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.163783066545724E-05</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1034,31 +1034,31 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.06863780225577146</v>
+        <v>4.995560069293238E-05</v>
       </c>
       <c r="O5">
-        <v>0.02548504151305557</v>
+        <v>0.05761827924896758</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01073793523603166</v>
       </c>
       <c r="Q5">
-        <v>0.01559999115766435</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05331229619491006</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05141607462684857</v>
+        <v>0.09535564988368786</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.1155295381498456</v>
       </c>
       <c r="V5">
-        <v>0.01417927348035921</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001102676798686877</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02352516560725165</v>
+        <v>0.02660250408567355</v>
       </c>
       <c r="AC5">
-        <v>0.01279289577977701</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.02890728654263982</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001264365254324841</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.02044584252823068</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.002263858462852932</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1114,58 +1114,58 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2769405515693146</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06593148301870733</v>
+        <v>0.2728962491494129</v>
       </c>
       <c r="F6">
-        <v>0.2436733320956729</v>
+        <v>0.01173704508236623</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2750145461899701</v>
       </c>
       <c r="H6">
-        <v>0.03412340348921602</v>
+        <v>0.006863347488030004</v>
       </c>
       <c r="I6">
-        <v>0.005444651214364917</v>
+        <v>0.1143888257460087</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.002160813595891957</v>
       </c>
       <c r="L6">
-        <v>0.00223146436157186</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.07081287437899784</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03087911973304037</v>
+        <v>0.0549485669041987</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.006121793071799531</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.02310203631848874</v>
       </c>
       <c r="S6">
-        <v>0.09387455395408499</v>
+        <v>0.008318546622674691</v>
       </c>
       <c r="T6">
-        <v>0.1143583763428976</v>
+        <v>0.05131770962261883</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.08484912381555343</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,25 +1174,25 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.006791716717439434</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.006549599208484145</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01537333413986636</v>
+        <v>0.01394943043067973</v>
       </c>
       <c r="AC6">
-        <v>0.004993399722023503</v>
+        <v>0.005127819020909695</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.06265454773291262</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005062055555407974</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02950968370739419</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2116830136500858</v>
+        <v>0.08040149319805825</v>
       </c>
       <c r="E2">
-        <v>0.3383700767679834</v>
+        <v>0.09889368648748426</v>
       </c>
       <c r="F2">
-        <v>0.6527298715900096</v>
+        <v>0.325442680445816</v>
       </c>
       <c r="G2">
-        <v>0.6527298715900096</v>
+        <v>0.5312020255670699</v>
       </c>
       <c r="H2">
-        <v>0.690165679546963</v>
+        <v>0.554995056932142</v>
       </c>
       <c r="I2">
-        <v>0.690696800237107</v>
+        <v>0.5978159284416633</v>
       </c>
       <c r="J2">
-        <v>0.690696800237107</v>
+        <v>0.6523435812641879</v>
       </c>
       <c r="K2">
-        <v>0.690696800237107</v>
+        <v>0.6523435812641879</v>
       </c>
       <c r="L2">
-        <v>0.6936624368465474</v>
+        <v>0.6703619702951031</v>
       </c>
       <c r="M2">
-        <v>0.6936624368465474</v>
+        <v>0.6703619702951031</v>
       </c>
       <c r="N2">
-        <v>0.7892915473540065</v>
+        <v>0.680122375935705</v>
       </c>
       <c r="O2">
-        <v>0.8122083176742328</v>
+        <v>0.7531720180622877</v>
       </c>
       <c r="P2">
-        <v>0.8122083176742328</v>
+        <v>0.7586072395344191</v>
       </c>
       <c r="Q2">
-        <v>0.8293438252556442</v>
+        <v>0.7650726214479279</v>
       </c>
       <c r="R2">
-        <v>0.8293438252556442</v>
+        <v>0.8050461775329532</v>
       </c>
       <c r="S2">
-        <v>0.8905548314095603</v>
+        <v>0.8050461775329532</v>
       </c>
       <c r="T2">
-        <v>0.9420497820202252</v>
+        <v>0.9129469934810777</v>
       </c>
       <c r="U2">
-        <v>0.9420497820202252</v>
+        <v>0.9225002263056394</v>
       </c>
       <c r="V2">
-        <v>0.9510726818855304</v>
+        <v>0.9267956144594778</v>
       </c>
       <c r="W2">
-        <v>0.9510726818855304</v>
+        <v>0.9267956144594778</v>
       </c>
       <c r="X2">
-        <v>0.9510726818855304</v>
+        <v>0.9267956144594778</v>
       </c>
       <c r="Y2">
-        <v>0.9510726818855304</v>
+        <v>0.9267956144594778</v>
       </c>
       <c r="Z2">
-        <v>0.9510726818855304</v>
+        <v>0.9267956144594778</v>
       </c>
       <c r="AA2">
-        <v>0.9510726818855304</v>
+        <v>0.9284910148218256</v>
       </c>
       <c r="AB2">
-        <v>0.9774965056240633</v>
+        <v>0.9284910148218256</v>
       </c>
       <c r="AC2">
-        <v>0.9973166997361256</v>
+        <v>0.9895046841136579</v>
       </c>
       <c r="AD2">
-        <v>0.9973166997361256</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9973166997361256</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9973166997361256</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9973166997361256</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01021949649382117</v>
       </c>
       <c r="E3">
-        <v>0.2372664397366998</v>
+        <v>0.1118569363720801</v>
       </c>
       <c r="F3">
-        <v>0.3580275679960401</v>
+        <v>0.2658282753379397</v>
       </c>
       <c r="G3">
-        <v>0.708622437412892</v>
+        <v>0.5583110600256737</v>
       </c>
       <c r="H3">
-        <v>0.708622437412892</v>
+        <v>0.5583110600256737</v>
       </c>
       <c r="I3">
-        <v>0.7733555593590743</v>
+        <v>0.6293012047733803</v>
       </c>
       <c r="J3">
-        <v>0.7733555593590743</v>
+        <v>0.6728314447803226</v>
       </c>
       <c r="K3">
-        <v>0.7733555593590743</v>
+        <v>0.6728314447803226</v>
       </c>
       <c r="L3">
-        <v>0.7733555593590743</v>
+        <v>0.6729116051837504</v>
       </c>
       <c r="M3">
-        <v>0.7733555593590743</v>
+        <v>0.6729116051837504</v>
       </c>
       <c r="N3">
-        <v>0.7733555593590743</v>
+        <v>0.6729116051837504</v>
       </c>
       <c r="O3">
-        <v>0.8192084678180878</v>
+        <v>0.7492785267745826</v>
       </c>
       <c r="P3">
-        <v>0.8306603561264314</v>
+        <v>0.7555991321211213</v>
       </c>
       <c r="Q3">
-        <v>0.8306603561264314</v>
+        <v>0.7555991321211213</v>
       </c>
       <c r="R3">
-        <v>0.8324327634797374</v>
+        <v>0.7944715857358674</v>
       </c>
       <c r="S3">
-        <v>0.8324327634797374</v>
+        <v>0.7944715857358674</v>
       </c>
       <c r="T3">
-        <v>0.9022009045941779</v>
+        <v>0.8762481272528566</v>
       </c>
       <c r="U3">
-        <v>0.9518071087824771</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="V3">
-        <v>0.9518071087824771</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="W3">
-        <v>0.9598928875767504</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="X3">
-        <v>0.9598928875767504</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="Y3">
-        <v>0.9598928875767504</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="Z3">
-        <v>0.9598928875767504</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="AA3">
-        <v>0.963935150648619</v>
+        <v>0.9239979005210598</v>
       </c>
       <c r="AB3">
-        <v>0.963935150648619</v>
+        <v>0.9290545035026435</v>
       </c>
       <c r="AC3">
-        <v>0.9859968381172886</v>
+        <v>0.9642475441660059</v>
       </c>
       <c r="AD3">
-        <v>0.9859968381172886</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AE3">
-        <v>0.9859968381172886</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AF3">
-        <v>0.9859968381172886</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AG3">
-        <v>0.9859968381172886</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.9859968381172886</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152460466268015</v>
+        <v>0.2283348420442656</v>
       </c>
       <c r="E4">
-        <v>0.1394276742468575</v>
+        <v>0.2283348420442656</v>
       </c>
       <c r="F4">
-        <v>0.4521702772116539</v>
+        <v>0.5237176055234254</v>
       </c>
       <c r="G4">
-        <v>0.6435990020365669</v>
+        <v>0.6092719832060129</v>
       </c>
       <c r="H4">
-        <v>0.6739382952233643</v>
+        <v>0.7065655814787319</v>
       </c>
       <c r="I4">
-        <v>0.7098301411834607</v>
+        <v>0.7065655814787319</v>
       </c>
       <c r="J4">
-        <v>0.7161379566961638</v>
+        <v>0.7427176428849063</v>
       </c>
       <c r="K4">
-        <v>0.7161379566961638</v>
+        <v>0.7427176428849063</v>
       </c>
       <c r="L4">
-        <v>0.7161379566961638</v>
+        <v>0.7443586912365304</v>
       </c>
       <c r="M4">
-        <v>0.7161379566961638</v>
+        <v>0.7443586912365304</v>
       </c>
       <c r="N4">
-        <v>0.7228747632977275</v>
+        <v>0.7619625005119436</v>
       </c>
       <c r="O4">
-        <v>0.7910505153775004</v>
+        <v>0.7808523382074235</v>
       </c>
       <c r="P4">
-        <v>0.7913918835246211</v>
+        <v>0.7808523382074235</v>
       </c>
       <c r="Q4">
-        <v>0.7913918835246211</v>
+        <v>0.7813939626250209</v>
       </c>
       <c r="R4">
-        <v>0.7913918835246211</v>
+        <v>0.7852111548242494</v>
       </c>
       <c r="S4">
-        <v>0.7913918835246211</v>
+        <v>0.8132384634541268</v>
       </c>
       <c r="T4">
-        <v>0.9031371375841843</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="U4">
-        <v>0.9087835215218441</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="V4">
-        <v>0.9217363819972818</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="W4">
-        <v>0.9217363819972818</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="X4">
-        <v>0.9293959796946637</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="Y4">
-        <v>0.9293959796946637</v>
+        <v>0.9304615740459681</v>
       </c>
       <c r="Z4">
-        <v>0.9293959796946637</v>
+        <v>0.9304615740459681</v>
       </c>
       <c r="AA4">
-        <v>0.9300112792482694</v>
+        <v>0.9505527024017394</v>
       </c>
       <c r="AB4">
-        <v>0.9381976246402053</v>
+        <v>0.9505527024017394</v>
       </c>
       <c r="AC4">
-        <v>0.9855607805297406</v>
+        <v>0.996813457088596</v>
       </c>
       <c r="AD4">
-        <v>0.9855607805297406</v>
+        <v>0.996813457088596</v>
       </c>
       <c r="AE4">
-        <v>0.9855607805297406</v>
+        <v>0.996813457088596</v>
       </c>
       <c r="AF4">
-        <v>0.9855607805297406</v>
+        <v>0.996813457088596</v>
       </c>
       <c r="AG4">
-        <v>0.9855607805297406</v>
+        <v>0.996813457088596</v>
       </c>
       <c r="AH4">
-        <v>0.987285178769487</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2209289622326693</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3425088310311784</v>
+        <v>0.2470019191828257</v>
       </c>
       <c r="F5">
-        <v>0.680510964766037</v>
+        <v>0.2852468759389271</v>
       </c>
       <c r="G5">
-        <v>0.680510964766037</v>
+        <v>0.530812861907061</v>
       </c>
       <c r="H5">
-        <v>0.7326844173313504</v>
+        <v>0.5344743730342476</v>
       </c>
       <c r="I5">
-        <v>0.7326844173313504</v>
+        <v>0.6025097972811733</v>
       </c>
       <c r="J5">
-        <v>0.7326844173313504</v>
+        <v>0.6423975124307119</v>
       </c>
       <c r="K5">
-        <v>0.7326844173313504</v>
+        <v>0.6424891502613773</v>
       </c>
       <c r="L5">
-        <v>0.7326844173313504</v>
+        <v>0.6424891502613773</v>
       </c>
       <c r="M5">
-        <v>0.7326844173313504</v>
+        <v>0.6424891502613773</v>
       </c>
       <c r="N5">
-        <v>0.8013222195871218</v>
+        <v>0.6425391058620703</v>
       </c>
       <c r="O5">
-        <v>0.8268072611001773</v>
+        <v>0.7001573851110379</v>
       </c>
       <c r="P5">
-        <v>0.8268072611001773</v>
+        <v>0.7108953203470695</v>
       </c>
       <c r="Q5">
-        <v>0.8424072522578416</v>
+        <v>0.7108953203470695</v>
       </c>
       <c r="R5">
-        <v>0.8424072522578416</v>
+        <v>0.7108953203470695</v>
       </c>
       <c r="S5">
-        <v>0.8957195484527517</v>
+        <v>0.7108953203470695</v>
       </c>
       <c r="T5">
-        <v>0.9471356230796003</v>
+        <v>0.8062509702307573</v>
       </c>
       <c r="U5">
-        <v>0.9471356230796003</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="V5">
-        <v>0.9613148965599595</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="W5">
-        <v>0.9613148965599595</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="X5">
-        <v>0.9613148965599595</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="Y5">
-        <v>0.9613148965599595</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="Z5">
-        <v>0.9624175733586464</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="AA5">
-        <v>0.9624175733586464</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="AB5">
-        <v>0.9859427389658981</v>
+        <v>0.9483830124662764</v>
       </c>
       <c r="AC5">
-        <v>0.9987356347456752</v>
+        <v>0.9483830124662764</v>
       </c>
       <c r="AD5">
-        <v>0.9987356347456752</v>
+        <v>0.9772902990089163</v>
       </c>
       <c r="AE5">
-        <v>0.9987356347456752</v>
+        <v>0.9772902990089163</v>
       </c>
       <c r="AF5">
-        <v>0.9987356347456752</v>
+        <v>0.9772902990089163</v>
       </c>
       <c r="AG5">
-        <v>0.9987356347456752</v>
+        <v>0.9772902990089163</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9772902990089163</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.997736141537147</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2769405515693146</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.342872034588022</v>
+        <v>0.2728962491494129</v>
       </c>
       <c r="F6">
-        <v>0.5865453666836948</v>
+        <v>0.2846332942317791</v>
       </c>
       <c r="G6">
-        <v>0.5865453666836948</v>
+        <v>0.5596478404217492</v>
       </c>
       <c r="H6">
-        <v>0.6206687701729109</v>
+        <v>0.5665111879097792</v>
       </c>
       <c r="I6">
-        <v>0.6261134213872758</v>
+        <v>0.6809000136557879</v>
       </c>
       <c r="J6">
-        <v>0.6261134213872758</v>
+        <v>0.6809000136557879</v>
       </c>
       <c r="K6">
-        <v>0.6261134213872758</v>
+        <v>0.6830608272516798</v>
       </c>
       <c r="L6">
-        <v>0.6283448857488476</v>
+        <v>0.6830608272516798</v>
       </c>
       <c r="M6">
-        <v>0.6283448857488476</v>
+        <v>0.6830608272516798</v>
       </c>
       <c r="N6">
-        <v>0.6991577601278455</v>
+        <v>0.6830608272516798</v>
       </c>
       <c r="O6">
-        <v>0.7300368798608858</v>
+        <v>0.7380093941558785</v>
       </c>
       <c r="P6">
-        <v>0.7300368798608858</v>
+        <v>0.744131187227678</v>
       </c>
       <c r="Q6">
-        <v>0.7300368798608858</v>
+        <v>0.744131187227678</v>
       </c>
       <c r="R6">
-        <v>0.7300368798608858</v>
+        <v>0.7672332235461667</v>
       </c>
       <c r="S6">
-        <v>0.8239114338149708</v>
+        <v>0.7755517701688415</v>
       </c>
       <c r="T6">
-        <v>0.9382698101578684</v>
+        <v>0.8268694797914603</v>
       </c>
       <c r="U6">
-        <v>0.9382698101578684</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="V6">
-        <v>0.9382698101578684</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="W6">
-        <v>0.9382698101578684</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="X6">
-        <v>0.9450615268753078</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="Y6">
-        <v>0.9450615268753078</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="Z6">
-        <v>0.9450615268753078</v>
+        <v>0.9182682028154979</v>
       </c>
       <c r="AA6">
-        <v>0.9450615268753078</v>
+        <v>0.9182682028154979</v>
       </c>
       <c r="AB6">
-        <v>0.9604348610151742</v>
+        <v>0.9322176332461777</v>
       </c>
       <c r="AC6">
-        <v>0.9654282607371977</v>
+        <v>0.9373454522670873</v>
       </c>
       <c r="AD6">
-        <v>0.9654282607371977</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9654282607371977</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9654282607371977</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9704903162926056</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5312020255670699</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.6527298715900096</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.708622437412892</v>
+        <v>0.5583110600256737</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6435990020365669</v>
+        <v>0.5237176055234254</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2071,16 +2071,16 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.680510964766037</v>
+        <v>0.530812861907061</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2112,16 +2112,16 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5865453666836948</v>
+        <v>0.5596478404217492</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7531720180622877</v>
+      </c>
+      <c r="G2">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7892915473540065</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.708622437412892</v>
+        <v>0.7492785267745826</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7098301411834607</v>
+        <v>0.7065655814787319</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2330,19 +2330,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7326844173313504</v>
+        <v>0.7001573851110379</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -2371,7 +2371,7 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7300368798608858</v>
+        <v>0.7380093941558785</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8122083176742328</v>
+        <v>0.8050461775329532</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8192084678180878</v>
+        <v>0.8762481272528566</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9031371375841843</v>
+        <v>0.8132384634541268</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -2589,19 +2589,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8013222195871218</v>
+        <v>0.8062509702307573</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -2630,16 +2630,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8239114338149708</v>
+        <v>0.8268694797914603</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9420497820202252</v>
+        <v>0.9129469934810777</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9022009045941779</v>
+        <v>0.919285022342073</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9031371375841843</v>
+        <v>0.9301335280923207</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2848,16 +2848,16 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9471356230796003</v>
+        <v>0.9217805083806029</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2889,16 +2889,16 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9382698101578684</v>
+        <v>0.9117186036070137</v>
       </c>
       <c r="G6">
         <v>18</v>
